--- a/data/trans_orig/P6602-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99366</v>
+        <v>99768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136188</v>
+        <v>138467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3131579730847248</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2658634598712593</v>
+        <v>0.2669403623974236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.364384859468052</v>
+        <v>0.3704829531247336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -765,19 +765,19 @@
         <v>89550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77100</v>
+        <v>76483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102273</v>
+        <v>101266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5941221676682868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5115229412281578</v>
+        <v>0.5074271207922684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6785288162375722</v>
+        <v>0.6718532776810081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -786,19 +786,19 @@
         <v>206592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184666</v>
+        <v>185745</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228004</v>
+        <v>230602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3939032839974587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3520968947588159</v>
+        <v>0.3541549296330245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4347289257729825</v>
+        <v>0.4396820252693896</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>60710</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47109</v>
+        <v>46753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78212</v>
+        <v>76140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.162436816107057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1260440801754721</v>
+        <v>0.1250914116099196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2092649969576244</v>
+        <v>0.2037207007961491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>23105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14733</v>
+        <v>15072</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33753</v>
+        <v>33354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.153293151691202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09774755459862663</v>
+        <v>0.09999727778450247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2239339856272971</v>
+        <v>0.2212877443729272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -857,19 +857,19 @@
         <v>83816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67432</v>
+        <v>66871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101821</v>
+        <v>100300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1598090505754589</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1285699825506261</v>
+        <v>0.1275002792998839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.194138973303449</v>
+        <v>0.1912383461488107</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>137192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116648</v>
+        <v>115852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158028</v>
+        <v>155452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3670718488544158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3121044941168625</v>
+        <v>0.3099753385812659</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4228203677762563</v>
+        <v>0.4159281700055693</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -907,19 +907,19 @@
         <v>20540</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13029</v>
+        <v>12734</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30441</v>
+        <v>30459</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1362724565521354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08644242233002143</v>
+        <v>0.08448330029908381</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2019639809966683</v>
+        <v>0.2020834443964978</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>147</v>
@@ -928,19 +928,19 @@
         <v>157732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>135307</v>
+        <v>136793</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>182033</v>
+        <v>178340</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3007432238937179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2579863701722102</v>
+        <v>0.2608187903510806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3470769947156855</v>
+        <v>0.3400367644178617</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>58803</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45012</v>
+        <v>44679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74166</v>
+        <v>74253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1573333619538023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1204344927789464</v>
+        <v>0.1195447239074155</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1984389156170929</v>
+        <v>0.1986710921958959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -978,19 +978,19 @@
         <v>17531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10602</v>
+        <v>10452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26152</v>
+        <v>27167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1163122240883757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07033777296486264</v>
+        <v>0.06934061609442736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1735052501286843</v>
+        <v>0.1802372046798174</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -999,19 +999,19 @@
         <v>76334</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62022</v>
+        <v>62412</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93548</v>
+        <v>95081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1455444415333646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1182550791292688</v>
+        <v>0.1189995077132305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1783658827080715</v>
+        <v>0.1812879482740867</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>428674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>398790</v>
+        <v>396239</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>459688</v>
+        <v>460576</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3811278142751733</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3545580591554058</v>
+        <v>0.3522899931120796</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4087023978104239</v>
+        <v>0.4094911495959204</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>393</v>
@@ -1124,19 +1124,19 @@
         <v>409311</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>387277</v>
+        <v>386927</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>433049</v>
+        <v>430481</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7036310509672922</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6657525982793872</v>
+        <v>0.6651511406899087</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7444368659463284</v>
+        <v>0.7400237125320728</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>801</v>
@@ -1145,19 +1145,19 @@
         <v>837985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>795503</v>
+        <v>794899</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>882381</v>
+        <v>879802</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4910652813795394</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4661704832414967</v>
+        <v>0.4658163425929867</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5170813563949149</v>
+        <v>0.5155704010344548</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>279730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250198</v>
+        <v>249648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305985</v>
+        <v>312217</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2487042745732158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2224474596455322</v>
+        <v>0.2219580606564848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2720470943544221</v>
+        <v>0.2775872977357405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1195,19 +1195,19 @@
         <v>114509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96135</v>
+        <v>96319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134952</v>
+        <v>135368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1968478176035073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.165262125963998</v>
+        <v>0.165578190120714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2319908617492141</v>
+        <v>0.2327054259313227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>372</v>
@@ -1216,19 +1216,19 @@
         <v>394239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359660</v>
+        <v>357594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>431617</v>
+        <v>430875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2310270332818398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2107634454310413</v>
+        <v>0.2095528867382326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2529306709401473</v>
+        <v>0.2524957485106621</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>326442</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295334</v>
+        <v>297112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356747</v>
+        <v>356106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2902351617586063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2625768119406898</v>
+        <v>0.264157839473702</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3171787105692136</v>
+        <v>0.3166083982279633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1266,19 +1266,19 @@
         <v>41068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29031</v>
+        <v>29697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53016</v>
+        <v>54448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07059794162189834</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0499068978047188</v>
+        <v>0.05105082293250916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09113819740117256</v>
+        <v>0.09359901144334117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>353</v>
@@ -1287,19 +1287,19 @@
         <v>367510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334803</v>
+        <v>333819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>401834</v>
+        <v>403054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2153634801242129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1961966695519468</v>
+        <v>0.1956205138109856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2354777931949226</v>
+        <v>0.2361923133369753</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>89904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72820</v>
+        <v>73772</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107208</v>
+        <v>109057</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07993274939300474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06474332397246506</v>
+        <v>0.06558973149642265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0953172958599575</v>
+        <v>0.09696078450899925</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1337,19 +1337,19 @@
         <v>16825</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9898</v>
+        <v>10123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26302</v>
+        <v>27197</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02892318980730217</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01701522833999607</v>
+        <v>0.01740221452064587</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04521469368893559</v>
+        <v>0.04675358606906292</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>107</v>
@@ -1358,19 +1358,19 @@
         <v>106729</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>88665</v>
+        <v>86663</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127100</v>
+        <v>128032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06254420521440791</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05195859669907814</v>
+        <v>0.05078497482052102</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07448175569148732</v>
+        <v>0.07502791466212384</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>292827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272053</v>
+        <v>276049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>309930</v>
+        <v>310916</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7281529909517289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6764937576514771</v>
+        <v>0.6864316098329671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7706816677473546</v>
+        <v>0.773133325187444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>236</v>
@@ -1483,19 +1483,19 @@
         <v>245168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232358</v>
+        <v>231048</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>256913</v>
+        <v>255972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8448906162054379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8007461309721083</v>
+        <v>0.7962307465248812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8853653871339207</v>
+        <v>0.8821253820384894</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -1504,19 +1504,19 @@
         <v>537995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514367</v>
+        <v>514068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>557470</v>
+        <v>560066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7770814433374136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7429525552501073</v>
+        <v>0.7425208987951936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8052108580787668</v>
+        <v>0.8089606639949267</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>68065</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53973</v>
+        <v>53825</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85732</v>
+        <v>83768</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1692513900032372</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1342116969170429</v>
+        <v>0.1338417282385849</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2131823998409023</v>
+        <v>0.2083000275710132</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -1554,19 +1554,19 @@
         <v>33962</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24454</v>
+        <v>24242</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46015</v>
+        <v>46184</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1170387397951397</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0842729520925616</v>
+        <v>0.08354081557247202</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1585750378361818</v>
+        <v>0.1591590436015724</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>96</v>
@@ -1575,19 +1575,19 @@
         <v>102027</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>84282</v>
+        <v>83949</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>121762</v>
+        <v>123772</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1473674073191185</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1217372083842485</v>
+        <v>0.1212560506508664</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1758726354377851</v>
+        <v>0.1787765739359747</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>29413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20044</v>
+        <v>20251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41118</v>
+        <v>40721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07313837410273631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04984301261506193</v>
+        <v>0.05035743929770978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1022439477338503</v>
+        <v>0.1012578138187313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1625,19 +1625,19 @@
         <v>6693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2757</v>
+        <v>2790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14358</v>
+        <v>14255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.023065017604095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009500965270399913</v>
+        <v>0.00961621956959823</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04947958268603182</v>
+        <v>0.04912642362278374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1646,19 +1646,19 @@
         <v>36106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25882</v>
+        <v>25446</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49377</v>
+        <v>48455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0521510374671785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03738454380540471</v>
+        <v>0.03675490615119485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07132068046155324</v>
+        <v>0.06998895262774432</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>11846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5942</v>
+        <v>5560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22418</v>
+        <v>21331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02945724494229754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01477432242239142</v>
+        <v>0.01382613693702311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05574420183130294</v>
+        <v>0.05304171804680058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>4354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11865</v>
+        <v>11809</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01500562639532734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004067092564156242</v>
+        <v>0.004040988718551384</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04088831391794662</v>
+        <v>0.0406962203255837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1717,19 +1717,19 @@
         <v>16201</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9004</v>
+        <v>8675</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26864</v>
+        <v>28128</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02340011187628939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01300606276318998</v>
+        <v>0.01253070211889803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03880212732669206</v>
+        <v>0.04062827290791016</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>838543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>793718</v>
+        <v>795827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>883581</v>
+        <v>883686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4411878165102221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4176034967046004</v>
+        <v>0.4187130965317643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4648838642809752</v>
+        <v>0.4649388292464644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>715</v>
@@ -1842,19 +1842,19 @@
         <v>744029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>711702</v>
+        <v>712872</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>771085</v>
+        <v>771462</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.727573846042354</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6959624015702502</v>
+        <v>0.6971063426906655</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7540319005317628</v>
+        <v>0.7544001275022898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1522</v>
@@ -1863,19 +1863,19 @@
         <v>1582572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1532906</v>
+        <v>1527540</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1640842</v>
+        <v>1634593</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5413713283032547</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5243814725230802</v>
+        <v>0.5225457790570832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5613045294594895</v>
+        <v>0.5591669753483322</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>408505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>376199</v>
+        <v>373456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>448312</v>
+        <v>447869</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2149293502860883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1979319695391413</v>
+        <v>0.1964885432060179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2358732138726078</v>
+        <v>0.2356400656326232</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -1913,19 +1913,19 @@
         <v>171576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151117</v>
+        <v>145697</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201178</v>
+        <v>198134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1677816146390502</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1477747494355255</v>
+        <v>0.1424748976333394</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1967288971005069</v>
+        <v>0.1937525811927149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>547</v>
@@ -1934,19 +1934,19 @@
         <v>580081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538982</v>
+        <v>536466</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>628003</v>
+        <v>621474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1984361374784437</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1843765728371798</v>
+        <v>0.1835160174117438</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2148291665919653</v>
+        <v>0.2125959249244799</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>493047</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>456587</v>
+        <v>453148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>534835</v>
+        <v>531920</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2594097996390545</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2402270793242236</v>
+        <v>0.2384174015176482</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2813960118041842</v>
+        <v>0.2798624677080785</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -1984,19 +1984,19 @@
         <v>68301</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52717</v>
+        <v>53231</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>85471</v>
+        <v>85914</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06679002926427934</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05155147696293647</v>
+        <v>0.05205361874376292</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08358040212619056</v>
+        <v>0.08401412404413967</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>535</v>
@@ -2005,19 +2005,19 @@
         <v>561348</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>520143</v>
+        <v>518389</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>608364</v>
+        <v>606374</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1920275845622977</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1779321866721858</v>
+        <v>0.1773323296040709</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2081109786084762</v>
+        <v>0.2074303912347275</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>160554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135685</v>
+        <v>136776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186669</v>
+        <v>184795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08447303356463515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07138856173406545</v>
+        <v>0.07196286421399885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09821331634383811</v>
+        <v>0.09722711698736454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2055,19 +2055,19 @@
         <v>38711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27602</v>
+        <v>27721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53259</v>
+        <v>52846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03785451005431648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02699161600203293</v>
+        <v>0.0271075418337685</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0520811652577659</v>
+        <v>0.05167756899482471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -2076,19 +2076,19 @@
         <v>199264</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>172244</v>
+        <v>172296</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228242</v>
+        <v>226715</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0681649496560038</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05892188571769552</v>
+        <v>0.05893974463720841</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07807789422668875</v>
+        <v>0.07755549918792019</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>38228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28375</v>
+        <v>28041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51054</v>
+        <v>51445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2100571668573174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.155917443748719</v>
+        <v>0.1540782043265492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2805324570479063</v>
+        <v>0.2826814340651678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -2440,19 +2440,19 @@
         <v>75876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62845</v>
+        <v>63310</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86883</v>
+        <v>86914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5532786068872356</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4582547177773387</v>
+        <v>0.4616461231053776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6335364316246537</v>
+        <v>0.6337690076791251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -2461,19 +2461,19 @@
         <v>114104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96097</v>
+        <v>96159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131428</v>
+        <v>133657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3575502617454306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3011239386569655</v>
+        <v>0.3013175879425463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4118348393883353</v>
+        <v>0.4188203527741228</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>52241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40508</v>
+        <v>41268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65094</v>
+        <v>65473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2870552153874005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2225835561234709</v>
+        <v>0.2267604201139532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3576813404915777</v>
+        <v>0.3597652930775969</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -2511,19 +2511,19 @@
         <v>37830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27506</v>
+        <v>28425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49354</v>
+        <v>50226</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2758544417711919</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2005730009530386</v>
+        <v>0.2072736027930319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3598865858688374</v>
+        <v>0.3662407446540537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -2532,19 +2532,19 @@
         <v>90071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74775</v>
+        <v>73629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107506</v>
+        <v>105706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2822418891404979</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2343109368691141</v>
+        <v>0.2307196639290497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3368757103024156</v>
+        <v>0.3312348844709986</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>43351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32557</v>
+        <v>33113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56967</v>
+        <v>56867</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2382046415054942</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1788933316647266</v>
+        <v>0.1819529184184671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3130225711174205</v>
+        <v>0.3124768214032227</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2582,19 +2582,19 @@
         <v>6451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2268</v>
+        <v>2287</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13026</v>
+        <v>13202</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04703812545452477</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01654009812943805</v>
+        <v>0.01667937170686267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09498193800179612</v>
+        <v>0.09626860398902912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -2603,19 +2603,19 @@
         <v>49801</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37446</v>
+        <v>38036</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63334</v>
+        <v>65330</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1560543507518692</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1173389659112752</v>
+        <v>0.1191873957379153</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1984589497031282</v>
+        <v>0.2047130895573123</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>48169</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37798</v>
+        <v>37598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61483</v>
+        <v>61625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2646829762497879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.207692747933544</v>
+        <v>0.2065964787646796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3378384620244598</v>
+        <v>0.3386211119198977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2653,19 +2653,19 @@
         <v>16982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10299</v>
+        <v>10368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26280</v>
+        <v>25958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1238288258870477</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07509544164522745</v>
+        <v>0.0756042492019966</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1916288802864363</v>
+        <v>0.189284093319574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -2674,19 +2674,19 @@
         <v>65151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51293</v>
+        <v>51687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80586</v>
+        <v>80596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2041534983622023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1607293800605191</v>
+        <v>0.1619641450861705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.252520394747896</v>
+        <v>0.2525521339559605</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>279870</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>249221</v>
+        <v>248867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>309313</v>
+        <v>310422</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3073692785799322</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2737088805975664</v>
+        <v>0.2733208529604293</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.339705299012764</v>
+        <v>0.3409233529938482</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>325</v>
@@ -2799,19 +2799,19 @@
         <v>348304</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>323891</v>
+        <v>324001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>371875</v>
+        <v>369266</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6093618331664526</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5666505864180598</v>
+        <v>0.5668444216854559</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6505991511458383</v>
+        <v>0.6460344159295672</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>581</v>
@@ -2820,19 +2820,19 @@
         <v>628174</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>590315</v>
+        <v>588365</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>667504</v>
+        <v>663322</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4238344963511542</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3982906645676615</v>
+        <v>0.3969754401447396</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4503708515912691</v>
+        <v>0.4475492808107892</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>253336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224601</v>
+        <v>226228</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>279399</v>
+        <v>282339</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2782280243033887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2466699053421717</v>
+        <v>0.2484570364028164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3068521856184031</v>
+        <v>0.3100812093873496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -2870,19 +2870,19 @@
         <v>130754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112545</v>
+        <v>111159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153373</v>
+        <v>150020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2287565320878406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968991514359555</v>
+        <v>0.1944738830227747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2683276014155259</v>
+        <v>0.262462580525198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -2891,19 +2891,19 @@
         <v>384090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>351689</v>
+        <v>349059</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>418547</v>
+        <v>420727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2591490502464293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2372879773399824</v>
+        <v>0.2355133286741458</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2823977003644096</v>
+        <v>0.2838684177274336</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>228367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>202271</v>
+        <v>205090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255290</v>
+        <v>255355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.250806535169305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2221454926717213</v>
+        <v>0.2252415604819299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.280374070196345</v>
+        <v>0.2804460955940085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -2941,19 +2941,19 @@
         <v>44083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32274</v>
+        <v>34120</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57174</v>
+        <v>59708</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0771242361761154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05646448861799747</v>
+        <v>0.05969354178900849</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1000263766234398</v>
+        <v>0.1044595809416434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -2962,19 +2962,19 @@
         <v>272451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243614</v>
+        <v>243888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304508</v>
+        <v>304858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1838249276162849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1643685271604838</v>
+        <v>0.164553670687023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2054544030847385</v>
+        <v>0.2056902669998354</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>148960</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124357</v>
+        <v>128035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>171222</v>
+        <v>174256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1635961619473741</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1365765571800553</v>
+        <v>0.1406160755731294</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1880461515524333</v>
+        <v>0.1913778648635162</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -3012,19 +3012,19 @@
         <v>48446</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36237</v>
+        <v>36617</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62437</v>
+        <v>63330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08475739856959139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06339783943871376</v>
+        <v>0.06406247305537469</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1092341053878512</v>
+        <v>0.1107959385869004</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -3033,19 +3033,19 @@
         <v>197406</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172451</v>
+        <v>171145</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>222834</v>
+        <v>225991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1331915257861316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1163541515896966</v>
+        <v>0.1154734201157163</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1503484826922111</v>
+        <v>0.152478301237233</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>193932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174826</v>
+        <v>174614</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212293</v>
+        <v>211933</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6150818343768452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5544844860505599</v>
+        <v>0.5538118099089426</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6733180281799994</v>
+        <v>0.672174862918975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -3158,19 +3158,19 @@
         <v>165376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148956</v>
+        <v>150140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180308</v>
+        <v>179617</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7040345772075467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6341344480623858</v>
+        <v>0.6391729787874907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7676040106830467</v>
+        <v>0.764661760205342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>325</v>
@@ -3179,19 +3179,19 @@
         <v>359307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334902</v>
+        <v>335485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>381802</v>
+        <v>382048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6530590725900752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6087019829825111</v>
+        <v>0.6097609588110871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6939437262526148</v>
+        <v>0.6943908013506025</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>75342</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>58979</v>
+        <v>58634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>91467</v>
+        <v>90773</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2389582031161638</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1870589267486972</v>
+        <v>0.1859660015786724</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2900994963769694</v>
+        <v>0.2878981417270205</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -3229,19 +3229,19 @@
         <v>54869</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41404</v>
+        <v>42585</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68727</v>
+        <v>71090</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2335885847139223</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1762624814385096</v>
+        <v>0.1812920348116665</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2925819582892998</v>
+        <v>0.302644003257876</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>119</v>
@@ -3250,19 +3250,19 @@
         <v>130211</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109164</v>
+        <v>109089</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>152580</v>
+        <v>152079</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2366657130738479</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1984109708419893</v>
+        <v>0.1982743111181492</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2773223705200965</v>
+        <v>0.2764115632348137</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>36477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25138</v>
+        <v>24793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51075</v>
+        <v>51535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1156925131115154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07972733170513636</v>
+        <v>0.07863336027955573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.16199148947515</v>
+        <v>0.1634499963408046</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3300,19 +3300,19 @@
         <v>12342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6530</v>
+        <v>5733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22553</v>
+        <v>22098</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05254131040460015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02780014816893858</v>
+        <v>0.02440753439406986</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0960118067124663</v>
+        <v>0.09407673978225653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -3321,19 +3321,19 @@
         <v>48819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35442</v>
+        <v>35357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66570</v>
+        <v>65917</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08873091313907773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06441743663256241</v>
+        <v>0.06426388425814658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1209949419960996</v>
+        <v>0.1198066745473754</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>9543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5203</v>
+        <v>4982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18231</v>
+        <v>18302</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03026744939547563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01650221664247054</v>
+        <v>0.01580228693609231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0578220746978663</v>
+        <v>0.05804825971385541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7218</v>
+        <v>8226</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009835527673930852</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03072901843391064</v>
+        <v>0.03502164024120565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3392,19 +3392,19 @@
         <v>11853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6167</v>
+        <v>6363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20888</v>
+        <v>20599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02154430119699916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01120851534745316</v>
+        <v>0.01156483821963393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0379651968911093</v>
+        <v>0.03743887369306685</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>512029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>473041</v>
+        <v>474619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>548653</v>
+        <v>548656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3637049368260556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3360111130196287</v>
+        <v>0.3371321746548109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3897195497079171</v>
+        <v>0.3897217158170293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>543</v>
@@ -3517,19 +3517,19 @@
         <v>589556</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>558805</v>
+        <v>559459</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>618350</v>
+        <v>622052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6247780340866996</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5921893205888835</v>
+        <v>0.592882260510684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6552915631396432</v>
+        <v>0.659215273714796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1013</v>
@@ -3538,19 +3538,19 @@
         <v>1101585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1041974</v>
+        <v>1051958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1146146</v>
+        <v>1152197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4684727138085858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4431219785724502</v>
+        <v>0.447367635687215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4874232196979515</v>
+        <v>0.489996694687068</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>380918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>350214</v>
+        <v>348707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>415194</v>
+        <v>416041</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2705742587663065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2487643312741799</v>
+        <v>0.2476941154165258</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2949213866082169</v>
+        <v>0.295522805989244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -3588,19 +3588,19 @@
         <v>223454</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>199649</v>
+        <v>196953</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250445</v>
+        <v>250018</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2368042369862478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2115761464255761</v>
+        <v>0.2087199820932614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2654068108836921</v>
+        <v>0.2649553288801442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>573</v>
@@ -3609,19 +3609,19 @@
         <v>604373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>565106</v>
+        <v>560074</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>647027</v>
+        <v>647764</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2570224598729254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2403233875882045</v>
+        <v>0.2381835093221863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2751623161010056</v>
+        <v>0.2754757744616548</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>308195</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>274490</v>
+        <v>279547</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>338957</v>
+        <v>346554</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2189173799438665</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1949757371883734</v>
+        <v>0.198568087358496</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2407685868827537</v>
+        <v>0.2461646827829715</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -3659,19 +3659,19 @@
         <v>62876</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48670</v>
+        <v>48737</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>80521</v>
+        <v>78319</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06663230776766493</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0515778501207584</v>
+        <v>0.05164857730738111</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08533178171276652</v>
+        <v>0.08299808243349741</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>350</v>
@@ -3680,19 +3680,19 @@
         <v>371071</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>335563</v>
+        <v>338362</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>409014</v>
+        <v>406433</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1578058803411462</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1427055703611411</v>
+        <v>0.1438957330901999</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1739420943863308</v>
+        <v>0.1728445156245816</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>206672</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182788</v>
+        <v>181382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>236891</v>
+        <v>236766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1468034244637713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1298383383029607</v>
+        <v>0.1288392257644858</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.168268954975931</v>
+        <v>0.1681802405512637</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -3730,19 +3730,19 @@
         <v>67739</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53889</v>
+        <v>53660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86135</v>
+        <v>84616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07178542115938762</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05710827673118166</v>
+        <v>0.05686555304990185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09128105081177861</v>
+        <v>0.08967116909207661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -3751,19 +3751,19 @@
         <v>274410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>239710</v>
+        <v>243464</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>304738</v>
+        <v>310636</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1166989459773426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1019416413842705</v>
+        <v>0.1035381045207497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1295963006051271</v>
+        <v>0.1321044976550348</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>24202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15157</v>
+        <v>16059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35001</v>
+        <v>35258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1751858229122586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1097183742348032</v>
+        <v>0.116244386890531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2533614367312298</v>
+        <v>0.2552168779892565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -4115,19 +4115,19 @@
         <v>36115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28127</v>
+        <v>28046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44423</v>
+        <v>44257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5224379433901225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4068788089536139</v>
+        <v>0.4057094510899501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6426123137114917</v>
+        <v>0.6402224047172875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -4136,19 +4136,19 @@
         <v>60317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47508</v>
+        <v>46866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74268</v>
+        <v>74850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2909973552902143</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2291998468324165</v>
+        <v>0.2261024544015391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3583040608827184</v>
+        <v>0.3611135106321005</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>30906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21857</v>
+        <v>21623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42448</v>
+        <v>41119</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2237147611569949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1582148627001021</v>
+        <v>0.156520353478654</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3072616962564398</v>
+        <v>0.2976440645334807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4186,19 +4186,19 @@
         <v>9202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4263</v>
+        <v>4825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15557</v>
+        <v>15534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1331175472605741</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06167211557059955</v>
+        <v>0.0697930992098231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2250407421459427</v>
+        <v>0.2247077321132614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -4207,19 +4207,19 @@
         <v>40108</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29585</v>
+        <v>28618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52021</v>
+        <v>53525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1934998206230702</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1427339889802315</v>
+        <v>0.1380674470291376</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2509764439281769</v>
+        <v>0.2582316429870612</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>32099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22604</v>
+        <v>22698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42028</v>
+        <v>43631</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2323491670834774</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1636216015844129</v>
+        <v>0.1643009947583907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.304225260185612</v>
+        <v>0.3158313354432249</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -4257,19 +4257,19 @@
         <v>6917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2967</v>
+        <v>2880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13679</v>
+        <v>13221</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1000615228017486</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04291803075120049</v>
+        <v>0.04166178666494088</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1978769967270095</v>
+        <v>0.1912601516097329</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -4278,19 +4278,19 @@
         <v>39016</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27756</v>
+        <v>29244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50450</v>
+        <v>51186</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1882301138208104</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1339081511652977</v>
+        <v>0.1410861110601845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2433936100094538</v>
+        <v>0.2469481914824641</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>50942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40087</v>
+        <v>39293</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62707</v>
+        <v>62495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3687502488472691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2901720359458239</v>
+        <v>0.2844253820226472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4539100926326226</v>
+        <v>0.4523781971284928</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -4328,19 +4328,19 @@
         <v>16894</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10542</v>
+        <v>10797</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25146</v>
+        <v>24643</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2443829865475548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1524972618195555</v>
+        <v>0.1561829060786064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3637623652262681</v>
+        <v>0.3564814195152411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -4349,19 +4349,19 @@
         <v>67836</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55474</v>
+        <v>54048</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82561</v>
+        <v>82423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3272727102659052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.267633167731902</v>
+        <v>0.2607534251740379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3983128086672582</v>
+        <v>0.3976504289925045</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>255176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>227292</v>
+        <v>227413</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>284065</v>
+        <v>282073</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2775233804532132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2471973030878772</v>
+        <v>0.2473292911848349</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3089420074562773</v>
+        <v>0.3067759751544218</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>316</v>
@@ -4474,19 +4474,19 @@
         <v>318470</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>291635</v>
+        <v>294342</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>344096</v>
+        <v>345254</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4917398125046907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4503042122321654</v>
+        <v>0.4544841475609995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5313077289227228</v>
+        <v>0.5330963495829966</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>557</v>
@@ -4495,19 +4495,19 @@
         <v>573646</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>536696</v>
+        <v>534863</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>613084</v>
+        <v>611227</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3660522755778642</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3424740792551207</v>
+        <v>0.3413040947924641</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.391218480967211</v>
+        <v>0.3900334590519987</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>256912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229380</v>
+        <v>229788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>286286</v>
+        <v>284037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2794115434737118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2494682897295868</v>
+        <v>0.2499116955847811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3113576348650155</v>
+        <v>0.3089115136415797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -4545,19 +4545,19 @@
         <v>179117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158771</v>
+        <v>158636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204595</v>
+        <v>200939</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2765691360506464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2451530824620828</v>
+        <v>0.2449452912066131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3159082598972356</v>
+        <v>0.3102635303407857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -4566,19 +4566,19 @@
         <v>436029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>401658</v>
+        <v>405932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>473534</v>
+        <v>476912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2782368661333777</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2563040932181055</v>
+        <v>0.2590316489220581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3021695545005219</v>
+        <v>0.304324860859769</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>231446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>204974</v>
+        <v>205669</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>259825</v>
+        <v>259445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2517146322368727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2229247647099656</v>
+        <v>0.2236811497993867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2825796568928124</v>
+        <v>0.2821659651772311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -4616,19 +4616,19 @@
         <v>92688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74626</v>
+        <v>75228</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111635</v>
+        <v>111348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.143116743670853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1152274077540056</v>
+        <v>0.1161573763492074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1723720026152405</v>
+        <v>0.1719293098434671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>308</v>
@@ -4637,19 +4637,19 @@
         <v>324134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>292253</v>
+        <v>293328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>357581</v>
+        <v>357609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2068345499969193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1864912737955757</v>
+        <v>0.1871772390746101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2281777036158762</v>
+        <v>0.2281959771583206</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>175942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>151990</v>
+        <v>153410</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>202877</v>
+        <v>201986</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1913504438362024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1653006566616751</v>
+        <v>0.1668452416073014</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2206443307423125</v>
+        <v>0.2196755945998951</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -4687,19 +4687,19 @@
         <v>57364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43919</v>
+        <v>42787</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72531</v>
+        <v>74548</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08857430777380987</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06781387125271807</v>
+        <v>0.06606645945685151</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1119932289143874</v>
+        <v>0.1151075970533845</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -4708,19 +4708,19 @@
         <v>233306</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>207503</v>
+        <v>205631</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>263298</v>
+        <v>263918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1488763082918388</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1324107167517734</v>
+        <v>0.1312165098831801</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1680142810513973</v>
+        <v>0.1684101897549316</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>181400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163247</v>
+        <v>162913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200123</v>
+        <v>201770</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5233777819070493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4710028158122198</v>
+        <v>0.4700378169994631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5773961573303626</v>
+        <v>0.5821491166854904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>194</v>
@@ -4833,19 +4833,19 @@
         <v>199185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>181741</v>
+        <v>180006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215904</v>
+        <v>216022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6457563945206022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5892007265672405</v>
+        <v>0.583576863182355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6999570283185244</v>
+        <v>0.7003415207897464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>358</v>
@@ -4854,19 +4854,19 @@
         <v>380586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>352423</v>
+        <v>356973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>405404</v>
+        <v>407491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5810041902442251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5380107954580043</v>
+        <v>0.5449569452187599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6188922462678268</v>
+        <v>0.6220786601449846</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>111746</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>94908</v>
+        <v>94103</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129214</v>
+        <v>129889</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3224117365359629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2738299453500279</v>
+        <v>0.2715081125960083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3728110595235368</v>
+        <v>0.3747586485306393</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>68</v>
@@ -4904,19 +4904,19 @@
         <v>69680</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56540</v>
+        <v>54479</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>84969</v>
+        <v>84892</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2259003877358572</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1833023571792336</v>
+        <v>0.1766209933375743</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2754677303098763</v>
+        <v>0.2752187614978409</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>172</v>
@@ -4925,19 +4925,19 @@
         <v>181426</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>158834</v>
+        <v>157571</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>205863</v>
+        <v>204258</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2769658675532108</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2424763516919828</v>
+        <v>0.2405483154083571</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3142715030258875</v>
+        <v>0.3118217090680624</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>35247</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24390</v>
+        <v>24290</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48042</v>
+        <v>46617</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1016964518285399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07036917842811378</v>
+        <v>0.07008141477245428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1386122008771849</v>
+        <v>0.1345011498036397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -4975,19 +4975,19 @@
         <v>25905</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17611</v>
+        <v>17484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39218</v>
+        <v>37517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08398323959251792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0570933314967686</v>
+        <v>0.05668341163268911</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1271429642246362</v>
+        <v>0.1216279987100072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -4996,19 +4996,19 @@
         <v>61152</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48285</v>
+        <v>47204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79392</v>
+        <v>79149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09335554340118762</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07371220837095885</v>
+        <v>0.07206151391506536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1212006236401329</v>
+        <v>0.1208299639275165</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>18201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11211</v>
+        <v>11026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29086</v>
+        <v>28629</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05251402972844785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03234544425939763</v>
+        <v>0.03181257964325918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08391973452474084</v>
+        <v>0.08260188142021055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -5046,19 +5046,19 @@
         <v>13683</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7450</v>
+        <v>7306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23531</v>
+        <v>21782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04435997815102273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02415277870933897</v>
+        <v>0.02368453696718324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07628586998440917</v>
+        <v>0.07061749487671758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -5067,19 +5067,19 @@
         <v>31884</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22213</v>
+        <v>21515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45836</v>
+        <v>45046</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0486743988013764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03391068629849074</v>
+        <v>0.03284494128185521</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06997398504744276</v>
+        <v>0.06876683701890947</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>460778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>426992</v>
+        <v>427239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>501218</v>
+        <v>498425</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3281381661062917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3040780888918969</v>
+        <v>0.3042540914848835</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3569377775594456</v>
+        <v>0.3549487910680985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>546</v>
@@ -5192,19 +5192,19 @@
         <v>553771</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>519516</v>
+        <v>525179</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>584603</v>
+        <v>587866</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5401479463425981</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5067358970221336</v>
+        <v>0.5122594276363471</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.57022110297453</v>
+        <v>0.5734046293579469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>973</v>
@@ -5213,19 +5213,19 @@
         <v>1014548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>964485</v>
+        <v>969131</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1059642</v>
+        <v>1067285</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4176060644603226</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3969989500847512</v>
+        <v>0.3989114113369637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4361674888655254</v>
+        <v>0.4393134635991125</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>399564</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>366340</v>
+        <v>368012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>435193</v>
+        <v>434761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2845455537570269</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2608853282171219</v>
+        <v>0.2620759460664079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3099186746155146</v>
+        <v>0.3096107868269941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -5263,19 +5263,19 @@
         <v>257999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232918</v>
+        <v>231051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>288247</v>
+        <v>285210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2516520593806839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2271883645646995</v>
+        <v>0.2253672886819126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2811562037603887</v>
+        <v>0.2781937935715518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>624</v>
@@ -5284,19 +5284,19 @@
         <v>657563</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>613852</v>
+        <v>610382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>704101</v>
+        <v>700146</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2706645346451191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2526722025154255</v>
+        <v>0.2512441901028157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2898203692661331</v>
+        <v>0.2881923088248867</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>298791</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>269458</v>
+        <v>269723</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>329258</v>
+        <v>329769</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2127813393711721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1918917063868912</v>
+        <v>0.1920805143358289</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2344777916813177</v>
+        <v>0.2348417399357599</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>118</v>
@@ -5334,19 +5334,19 @@
         <v>125510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>107134</v>
+        <v>102876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>151325</v>
+        <v>147040</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.122422415031796</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1044987867531391</v>
+        <v>0.100344977088995</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1476021743304984</v>
+        <v>0.1434226606058812</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>403</v>
@@ -5355,19 +5355,19 @@
         <v>424301</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>387347</v>
+        <v>386584</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>463169</v>
+        <v>463137</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.174649970859945</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1594387734511442</v>
+        <v>0.1591249364341112</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1906486497829939</v>
+        <v>0.1906353408239651</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>245085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>218488</v>
+        <v>216413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>278806</v>
+        <v>277159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1745349407655093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1555941190616316</v>
+        <v>0.1541165935345694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1985488183184863</v>
+        <v>0.1973758708520372</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -5405,19 +5405,19 @@
         <v>87941</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>71664</v>
+        <v>71324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106718</v>
+        <v>107023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08577757924492192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06990079658165781</v>
+        <v>0.06956911838659566</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1040928841958907</v>
+        <v>0.1043902010543287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>307</v>
@@ -5426,19 +5426,19 @@
         <v>333026</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>298500</v>
+        <v>298778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>367606</v>
+        <v>369203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1370794300346133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1228678943367585</v>
+        <v>0.1229823841858235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1513129893862563</v>
+        <v>0.1519706556291287</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>15854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9086</v>
+        <v>9679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24728</v>
+        <v>24466</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1831108876000133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1049387859937946</v>
+        <v>0.1117923465683883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2855909897615764</v>
+        <v>0.2825707939412689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5790,19 +5790,19 @@
         <v>16152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11264</v>
+        <v>10698</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22125</v>
+        <v>21495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.366177152751976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2553606593114888</v>
+        <v>0.2425363479212506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.501597657661974</v>
+        <v>0.4873217133704553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -5811,19 +5811,19 @@
         <v>32006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23637</v>
+        <v>23042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42181</v>
+        <v>43383</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2448962586441519</v>
+        <v>0.2448962586441518</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1808571460236179</v>
+        <v>0.1763076608853951</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.322747417178723</v>
+        <v>0.3319421049389027</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>17832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10571</v>
+        <v>9982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27217</v>
+        <v>26603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2059490726994225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1220913205428736</v>
+        <v>0.1152823601409973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3143448246231136</v>
+        <v>0.3072506105930686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -5861,19 +5861,19 @@
         <v>21162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14947</v>
+        <v>15733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26704</v>
+        <v>27262</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4797610357376242</v>
+        <v>0.4797610357376244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3388712346802156</v>
+        <v>0.3566837509406913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6054022828237544</v>
+        <v>0.6180590765401101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -5882,19 +5882,19 @@
         <v>38994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29590</v>
+        <v>29628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51161</v>
+        <v>50262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2983613678789632</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2264086216644047</v>
+        <v>0.2266990545262792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3914608766136025</v>
+        <v>0.3845831628415097</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>30235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20273</v>
+        <v>19966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41884</v>
+        <v>40952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3491978564735673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2341415268530639</v>
+        <v>0.2306013110520979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4837348613263261</v>
+        <v>0.4729692453732005</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -5932,19 +5932,19 @@
         <v>2866</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6837</v>
+        <v>6814</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06497342224308407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01722849737738732</v>
+        <v>0.01685495791197055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1549949226319232</v>
+        <v>0.1544920215504993</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -5953,19 +5953,19 @@
         <v>33101</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23320</v>
+        <v>22528</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45471</v>
+        <v>44895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2532713234546984</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1784366864789015</v>
+        <v>0.1723767007737124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3479204465965771</v>
+        <v>0.3435177458564771</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>22663</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13995</v>
+        <v>14192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35304</v>
+        <v>35005</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.261742183226997</v>
+        <v>0.2617421832269969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1616335040207142</v>
+        <v>0.1639070835287792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4077375874614222</v>
+        <v>0.4042883960564159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6003,19 +6003,19 @@
         <v>3930</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1296</v>
+        <v>1270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11274</v>
+        <v>10043</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08908838926731547</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0293725320347231</v>
+        <v>0.02880085021735666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2555884813419606</v>
+        <v>0.2276789865867046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -6024,19 +6024,19 @@
         <v>26592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16820</v>
+        <v>16893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40093</v>
+        <v>41979</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2034710500221865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1287000951506299</v>
+        <v>0.1292544319704397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3067696858257807</v>
+        <v>0.3212033966620627</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>168967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>145121</v>
+        <v>146419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>195075</v>
+        <v>194150</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2734055866183047</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2348210082055341</v>
+        <v>0.2369200640757336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3156502620476017</v>
+        <v>0.3141539530157595</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>308</v>
@@ -6149,19 +6149,19 @@
         <v>231042</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>211619</v>
+        <v>212154</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>250220</v>
+        <v>249789</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.5167572325679517</v>
+        <v>0.5167572325679518</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4733154172608374</v>
+        <v>0.4745121326573219</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5596531082616636</v>
+        <v>0.5586893342208969</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>451</v>
@@ -6170,19 +6170,19 @@
         <v>400009</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>367295</v>
+        <v>366795</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>431248</v>
+        <v>435240</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3755570543174195</v>
+        <v>0.3755570543174194</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3448425677316854</v>
+        <v>0.3443733995850348</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4048868669646148</v>
+        <v>0.4086347613489798</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>202266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174948</v>
+        <v>176407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229620</v>
+        <v>231709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3272864637547875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2830833703837726</v>
+        <v>0.2854433773729447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3715474812155254</v>
+        <v>0.3749275289018463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -6220,19 +6220,19 @@
         <v>121086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105109</v>
+        <v>105919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137889</v>
+        <v>138824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2708260893671271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2350907652601249</v>
+        <v>0.2369029093085187</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3084076527472754</v>
+        <v>0.3104997657896351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>340</v>
@@ -6241,19 +6241,19 @@
         <v>323352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291981</v>
+        <v>292497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354728</v>
+        <v>357042</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3035861510322905</v>
+        <v>0.3035861510322904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.274132915673207</v>
+        <v>0.2746172604614115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.333043860274064</v>
+        <v>0.335217157405737</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>153508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129546</v>
+        <v>130190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178770</v>
+        <v>177582</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2483906271712062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2096189356811419</v>
+        <v>0.2106603797415786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2892683458586827</v>
+        <v>0.2873450076411374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -6291,19 +6291,19 @@
         <v>52290</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40768</v>
+        <v>40696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67072</v>
+        <v>66461</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1169545743167351</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09118235427422303</v>
+        <v>0.09102299932923824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1500155739225147</v>
+        <v>0.1486500252461721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>194</v>
@@ -6312,19 +6312,19 @@
         <v>205798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>179063</v>
+        <v>178781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237645</v>
+        <v>239890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1932178517610873</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1681167646265422</v>
+        <v>0.1678526668221202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2231183570442949</v>
+        <v>0.2252258008729659</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>93268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72388</v>
+        <v>74673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115025</v>
+        <v>116921</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1509173224557016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1171312469523101</v>
+        <v>0.1208276836161983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1861219754302384</v>
+        <v>0.1891905555000457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -6362,19 +6362,19 @@
         <v>42681</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33073</v>
+        <v>32101</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55859</v>
+        <v>57087</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09546210374818603</v>
+        <v>0.09546210374818606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07397331928913281</v>
+        <v>0.07179802260378128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1249373759160533</v>
+        <v>0.1276837554153181</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -6383,19 +6383,19 @@
         <v>135949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>114718</v>
+        <v>112683</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159968</v>
+        <v>162313</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1276389428892028</v>
+        <v>0.1276389428892027</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.107705628158537</v>
+        <v>0.1057947161703619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1501891754146831</v>
+        <v>0.1523915626557238</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>182133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164254</v>
+        <v>165990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199477</v>
+        <v>199017</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6919058436962346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6239853940141141</v>
+        <v>0.6305814450862438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7577952212543538</v>
+        <v>0.7560457103687049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -6508,19 +6508,19 @@
         <v>161684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148486</v>
+        <v>146658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174585</v>
+        <v>171583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7403178774297924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6798869162401268</v>
+        <v>0.6715151646939483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7993908184334991</v>
+        <v>0.7856447298518395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>381</v>
@@ -6529,19 +6529,19 @@
         <v>343817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>320084</v>
+        <v>322765</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>363210</v>
+        <v>362562</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7138584619051929</v>
+        <v>0.713858461905193</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6645810722921562</v>
+        <v>0.6701491221771667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7541227662065397</v>
+        <v>0.7527783421258267</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>53875</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40429</v>
+        <v>39777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69482</v>
+        <v>68106</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2046654026221011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1535871011111549</v>
+        <v>0.1511095464760673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2639540599854674</v>
+        <v>0.2587275705028454</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -6579,19 +6579,19 @@
         <v>33562</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24312</v>
+        <v>24774</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44447</v>
+        <v>46518</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1536753021830636</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.111317845150712</v>
+        <v>0.1134329065973961</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2035135377829951</v>
+        <v>0.2129947595460984</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>88</v>
@@ -6600,19 +6600,19 @@
         <v>87437</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>69821</v>
+        <v>70889</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>108015</v>
+        <v>105727</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1815437503995316</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1449665917088061</v>
+        <v>0.147185477398794</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2242679894520008</v>
+        <v>0.2195185386288943</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>14150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6800</v>
+        <v>7775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23559</v>
+        <v>23388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05375523235904706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02583399645022751</v>
+        <v>0.0295352196102425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0894979384774623</v>
+        <v>0.08884803620039487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -6650,19 +6650,19 @@
         <v>11515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6970</v>
+        <v>6749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18752</v>
+        <v>18825</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05272466532191936</v>
+        <v>0.05272466532191934</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03191438273530333</v>
+        <v>0.03090170410708134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.085863556325604</v>
+        <v>0.08619516989215487</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -6671,19 +6671,19 @@
         <v>25665</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16888</v>
+        <v>17159</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36703</v>
+        <v>35614</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05328791787213016</v>
+        <v>0.05328791787213014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03506423520130603</v>
+        <v>0.0356275510461456</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07620480826636901</v>
+        <v>0.07394487725925028</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>13076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5999</v>
+        <v>5987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26711</v>
+        <v>27646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04967352132261717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.022789134081019</v>
+        <v>0.02274279715350702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.101471342700153</v>
+        <v>0.105024717090052</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6721,19 +6721,19 @@
         <v>11637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6755</v>
+        <v>6466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18924</v>
+        <v>20029</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05328215506522459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03093155381817467</v>
+        <v>0.02960852959260814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08664993547565593</v>
+        <v>0.09170874355731005</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -6742,19 +6742,19 @@
         <v>24712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15631</v>
+        <v>15305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38848</v>
+        <v>38819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05130986982314532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03245472077160962</v>
+        <v>0.03177677675805572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08065948811666564</v>
+        <v>0.08059799153300932</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>366955</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>337986</v>
+        <v>334753</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>405862</v>
+        <v>400445</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3791533456742961</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3492219093493061</v>
+        <v>0.34588106328841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4193540714734469</v>
+        <v>0.4137564413905322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>555</v>
@@ -6867,19 +6867,19 @@
         <v>408878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>385455</v>
+        <v>384291</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>430465</v>
+        <v>431814</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5762031214644295</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5431946779874173</v>
+        <v>0.5415553252297849</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6066249665496726</v>
+        <v>0.6085253379866394</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>871</v>
@@ -6888,19 +6888,19 @@
         <v>775832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>732502</v>
+        <v>731778</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>817682</v>
+        <v>816177</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4625115332640576</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4366805480842382</v>
+        <v>0.4362489291620647</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4874603766820182</v>
+        <v>0.4865629339785656</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>273973</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243167</v>
+        <v>245474</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304596</v>
+        <v>310186</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2830803086072329</v>
+        <v>0.283080308607233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2512504340001012</v>
+        <v>0.2536337998490421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3147219947124634</v>
+        <v>0.3204977071594925</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -6938,19 +6938,19 @@
         <v>175811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>156310</v>
+        <v>156266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>198440</v>
+        <v>198163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2477576490988476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2202763353018843</v>
+        <v>0.220214687279628</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2796482515741796</v>
+        <v>0.2792568257054888</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>473</v>
@@ -6959,19 +6959,19 @@
         <v>449783</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>412315</v>
+        <v>414405</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488744</v>
+        <v>489783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2681377243507291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2458014244533636</v>
+        <v>0.2470470392796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2913640852562438</v>
+        <v>0.2919834377441028</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>197893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>171224</v>
+        <v>170973</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>227171</v>
+        <v>228036</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2044711795347871</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1769157626953943</v>
+        <v>0.1766562877547934</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2347228032479358</v>
+        <v>0.2356163530845531</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -7009,19 +7009,19 @@
         <v>66671</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53288</v>
+        <v>52599</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82486</v>
+        <v>81161</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09395517388382986</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07509534743270804</v>
+        <v>0.07412414272586798</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1162423343843228</v>
+        <v>0.1143739773231745</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>251</v>
@@ -7030,19 +7030,19 @@
         <v>264564</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>231857</v>
+        <v>233806</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>296784</v>
+        <v>294036</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1577194697508832</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1382214277946401</v>
+        <v>0.139383379755803</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1769273834089334</v>
+        <v>0.1752894676475547</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>129007</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106254</v>
+        <v>105582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159778</v>
+        <v>157408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1332951661836839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.109786201401868</v>
+        <v>0.1090915918851775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1650894393343944</v>
+        <v>0.1626407694795903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -7080,19 +7080,19 @@
         <v>58247</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46001</v>
+        <v>45771</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74853</v>
+        <v>74339</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08208405555289301</v>
+        <v>0.082084055552893</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06482541507762252</v>
+        <v>0.06450189760423608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1054853499958753</v>
+        <v>0.1047608260071074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>167</v>
@@ -7101,19 +7101,19 @@
         <v>187254</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158926</v>
+        <v>159473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218888</v>
+        <v>221842</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.11163127263433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09474337714902789</v>
+        <v>0.09506946216187033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1304901446057092</v>
+        <v>0.1322506098547174</v>
       </c>
     </row>
     <row r="23">
